--- a/SRL_survey1_cleaned_data.xlsx
+++ b/SRL_survey1_cleaned_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pram/SRL survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D954CEE-EE31-9541-A988-20083AE70893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F5D5E-ECB5-9143-9A02-EF6403AE337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1080" windowWidth="26920" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1060" windowWidth="26920" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Responses!$A$1:$AQ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Responses!$A$2:$AQ$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>I set personal standards for performance in my learning.</t>
   </si>
@@ -255,6 +255,39 @@
   </si>
   <si>
     <t>Participants</t>
+  </si>
+  <si>
+    <t>Goal Setting</t>
+  </si>
+  <si>
+    <t>Strategic planning</t>
+  </si>
+  <si>
+    <t>Task Interest / Value</t>
+  </si>
+  <si>
+    <t>Self efficacy</t>
+  </si>
+  <si>
+    <t>Task strategies</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>Critical thinking</t>
+  </si>
+  <si>
+    <t>Help seeking</t>
+  </si>
+  <si>
+    <t>Interest enhancement</t>
+  </si>
+  <si>
+    <t>Self evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-satisfaction / affect: </t>
   </si>
 </sst>
 </file>
@@ -274,12 +307,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,9 +333,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,295 +657,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="8" max="9" width="10.83203125" style="4"/>
     <col min="22" max="22" width="50.6640625" customWidth="1"/>
     <col min="23" max="23" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>5</v>
-      </c>
-      <c r="Z2">
-        <v>4</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2">
-        <v>3</v>
-      </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2">
-        <v>4</v>
-      </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AG2">
-        <v>4</v>
-      </c>
-      <c r="AH2">
-        <v>4</v>
-      </c>
-      <c r="AI2">
-        <v>4</v>
-      </c>
-      <c r="AJ2">
-        <v>4</v>
-      </c>
-      <c r="AK2">
-        <v>4</v>
-      </c>
-      <c r="AL2">
-        <v>3</v>
-      </c>
-      <c r="AM2">
-        <v>3</v>
-      </c>
-      <c r="AN2">
-        <v>4</v>
-      </c>
-      <c r="AO2">
-        <v>4</v>
-      </c>
-      <c r="AP2">
-        <v>3</v>
-      </c>
-      <c r="AQ2">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -907,59 +889,59 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3">
         <v>3</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3">
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <v>4</v>
@@ -968,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD3">
         <v>3</v>
@@ -986,13 +968,13 @@
         <v>4</v>
       </c>
       <c r="AH3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI3">
         <v>4</v>
       </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK3">
         <v>4</v>
@@ -1007,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="AO3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP3">
         <v>3</v>
@@ -1018,177 +1000,177 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1197,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1209,105 +1191,105 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>2</v>
       </c>
       <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>5</v>
-      </c>
-      <c r="AG5">
-        <v>4</v>
-      </c>
-      <c r="AH5">
-        <v>3</v>
-      </c>
-      <c r="AI5">
-        <v>3</v>
-      </c>
-      <c r="AJ5">
-        <v>4</v>
-      </c>
-      <c r="AK5">
-        <v>4</v>
-      </c>
       <c r="AL5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1322,28 +1304,28 @@
         <v>3</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -1352,28 +1334,28 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <v>4</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>3</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6">
         <v>4</v>
@@ -1382,22 +1364,22 @@
         <v>3</v>
       </c>
       <c r="AI6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ6">
         <v>4</v>
       </c>
       <c r="AK6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>4</v>
@@ -1411,13 +1393,13 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1426,19 +1408,19 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1447,46 +1429,46 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>4</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>4</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA7">
         <v>4</v>
@@ -1495,46 +1477,46 @@
         <v>3</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD7">
         <v>3</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG7">
         <v>4</v>
       </c>
       <c r="AH7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL7">
         <v>4</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ7">
         <v>5</v>
@@ -1542,43 +1524,43 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1587,55 +1569,55 @@
         <v>3</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8">
         <v>4</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8">
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG8">
         <v>4</v>
@@ -1647,66 +1629,66 @@
         <v>4</v>
       </c>
       <c r="AJ8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8">
         <v>4</v>
       </c>
       <c r="AL8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP8">
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -1715,34 +1697,34 @@
         <v>3</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>3</v>
@@ -1751,43 +1733,43 @@
         <v>4</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG9">
         <v>4</v>
       </c>
       <c r="AH9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN9">
         <v>3</v>
@@ -1799,15 +1781,15 @@
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1819,25 +1801,25 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -1846,64 +1828,64 @@
         <v>3</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>4</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U10">
         <v>4</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>3</v>
       </c>
       <c r="Z10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI10">
         <v>3</v>
@@ -1915,10 +1897,10 @@
         <v>3</v>
       </c>
       <c r="AL10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN10">
         <v>3</v>
@@ -1930,21 +1912,21 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1953,13 +1935,13 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1980,31 +1962,31 @@
         <v>2</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11">
         <v>2</v>
       </c>
       <c r="W11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>3</v>
@@ -2013,40 +1995,40 @@
         <v>5</v>
       </c>
       <c r="AA11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC11">
         <v>3</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG11">
         <v>5</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2055,51 +2037,51 @@
         <v>3</v>
       </c>
       <c r="AO11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP11">
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -2108,16 +2090,16 @@
         <v>3</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>3</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2132,111 +2114,111 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA12">
         <v>4</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC12">
         <v>3</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH12">
         <v>2</v>
       </c>
       <c r="AI12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12">
         <v>3</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP12">
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -2251,52 +2233,52 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z13">
         <v>4</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI13">
         <v>4</v>
@@ -2305,114 +2287,114 @@
         <v>3</v>
       </c>
       <c r="AK13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL13">
         <v>3</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U14">
         <v>3</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD14">
         <v>2</v>
@@ -2421,13 +2403,13 @@
         <v>4</v>
       </c>
       <c r="AF14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <v>4</v>
@@ -2442,114 +2424,114 @@
         <v>3</v>
       </c>
       <c r="AM14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S15">
         <v>3</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z15">
         <v>5</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF15">
         <v>5</v>
@@ -2558,99 +2540,99 @@
         <v>5</v>
       </c>
       <c r="AH15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI15">
         <v>4</v>
       </c>
       <c r="AJ15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL15">
         <v>3</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>1</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-      <c r="R16">
-        <v>5</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -2659,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z16">
         <v>5</v>
@@ -2674,37 +2656,37 @@
         <v>5</v>
       </c>
       <c r="AC16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16">
+        <v>4</v>
+      </c>
+      <c r="AI16">
+        <v>4</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>5</v>
+      </c>
+      <c r="AL16">
+        <v>3</v>
+      </c>
+      <c r="AM16">
         <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>5</v>
-      </c>
-      <c r="AI16">
-        <v>5</v>
-      </c>
-      <c r="AJ16">
-        <v>3</v>
-      </c>
-      <c r="AK16">
-        <v>5</v>
-      </c>
-      <c r="AL16">
-        <v>5</v>
-      </c>
-      <c r="AM16">
-        <v>5</v>
       </c>
       <c r="AN16">
         <v>3</v>
@@ -2721,79 +2703,79 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
         <v>3</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S17">
         <v>5</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z17">
         <v>5</v>
@@ -2805,215 +2787,215 @@
         <v>5</v>
       </c>
       <c r="AC17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI17">
         <v>5</v>
       </c>
       <c r="AJ17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK17">
         <v>5</v>
       </c>
       <c r="AL17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP17">
         <v>5</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN18">
         <v>4</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -3022,13 +3004,13 @@
         <v>2</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -3046,13 +3028,13 @@
         <v>3</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>3</v>
@@ -3064,13 +3046,13 @@
         <v>3</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19">
         <v>2</v>
@@ -3082,25 +3064,25 @@
         <v>2</v>
       </c>
       <c r="AH19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ19">
         <v>3</v>
       </c>
       <c r="AK19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM19">
         <v>3</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO19">
         <v>2</v>
@@ -3109,66 +3091,66 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
         <v>3</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>3</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>3</v>
@@ -3177,13 +3159,13 @@
         <v>3</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>3</v>
@@ -3195,25 +3177,25 @@
         <v>3</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC20">
         <v>3</v>
       </c>
       <c r="AD20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20">
         <v>3</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI20">
         <v>3</v>
@@ -3222,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="AK20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL20">
         <v>3</v>
@@ -3231,10 +3213,10 @@
         <v>3</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP20">
         <v>3</v>
@@ -3245,34 +3227,34 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -3281,40 +3263,40 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>1</v>
       </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U21">
         <v>3</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21">
         <v>3</v>
@@ -3323,16 +3305,16 @@
         <v>3</v>
       </c>
       <c r="AA21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB21">
         <v>3</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21">
         <v>3</v>
@@ -3344,7 +3326,7 @@
         <v>3</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI21">
         <v>3</v>
@@ -3353,72 +3335,72 @@
         <v>3</v>
       </c>
       <c r="AK21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>3</v>
@@ -3430,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22">
         <v>2</v>
@@ -3439,13 +3421,13 @@
         <v>3</v>
       </c>
       <c r="V22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>3</v>
@@ -3454,19 +3436,19 @@
         <v>3</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB22">
         <v>3</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22">
         <v>3</v>
@@ -3475,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="AH22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22">
         <v>3</v>
@@ -3484,53 +3466,53 @@
         <v>3</v>
       </c>
       <c r="AK22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
         <v>4</v>
       </c>
       <c r="J23">
@@ -3540,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -3552,25 +3534,25 @@
         <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W23">
         <v>4</v>
@@ -3579,19 +3561,19 @@
         <v>3</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB23">
         <v>3</v>
       </c>
       <c r="AC23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD23">
         <v>3</v>
@@ -3603,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="AG23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH23">
         <v>3</v>
@@ -3621,13 +3603,13 @@
         <v>3</v>
       </c>
       <c r="AM23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP23">
         <v>3</v>
@@ -3638,13 +3620,13 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3653,19 +3635,19 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4">
         <v>4</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3674,10 +3656,10 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -3692,22 +3674,22 @@
         <v>4</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>4</v>
       </c>
       <c r="U24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W24">
         <v>4</v>
       </c>
       <c r="X24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>4</v>
@@ -3719,165 +3701,165 @@
         <v>4</v>
       </c>
       <c r="AB24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC24">
         <v>4</v>
       </c>
       <c r="AD24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
       <c r="AF24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG24">
         <v>4</v>
       </c>
       <c r="AH24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL24">
         <v>3</v>
       </c>
       <c r="AM24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24">
         <v>4</v>
       </c>
       <c r="AP24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4</v>
+      </c>
+      <c r="I25" s="4">
         <v>4</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25">
         <v>4</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC25">
         <v>4</v>
       </c>
       <c r="AD25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH25">
         <v>4</v>
       </c>
       <c r="AI25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL25">
         <v>3</v>
@@ -3889,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ25">
         <v>4</v>
@@ -3900,82 +3882,82 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26">
         <v>3</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA26">
         <v>3</v>
@@ -3987,43 +3969,43 @@
         <v>4</v>
       </c>
       <c r="AD26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK26">
         <v>3</v>
       </c>
       <c r="AL26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM26">
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ26">
         <v>4</v>
@@ -4031,7 +4013,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -4040,22 +4022,22 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -4064,34 +4046,34 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R27">
         <v>3</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27">
         <v>3</v>
@@ -4100,19 +4082,19 @@
         <v>4</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>4</v>
       </c>
       <c r="Z27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC27">
         <v>4</v>
@@ -4124,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="AF27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG27">
         <v>4</v>
@@ -4133,19 +4115,19 @@
         <v>3</v>
       </c>
       <c r="AI27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ27">
         <v>4</v>
       </c>
       <c r="AK27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN27">
         <v>4</v>
@@ -4154,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ27">
         <v>4</v>
@@ -4162,37 +4144,37 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
         <v>4</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -4201,7 +4183,7 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O28">
         <v>4</v>
@@ -4213,13 +4195,13 @@
         <v>3</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U28">
         <v>3</v>
@@ -4228,13 +4210,13 @@
         <v>3</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z28">
         <v>4</v>
@@ -4243,19 +4225,19 @@
         <v>4</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC28">
         <v>4</v>
       </c>
       <c r="AD28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG28">
         <v>4</v>
@@ -4267,19 +4249,19 @@
         <v>3</v>
       </c>
       <c r="AJ28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28">
         <v>4</v>
@@ -4288,12 +4270,12 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -4308,25 +4290,25 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29">
         <v>4</v>
@@ -4335,28 +4317,28 @@
         <v>3</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <v>4</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -4365,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA29">
         <v>4</v>
@@ -4377,22 +4359,22 @@
         <v>3</v>
       </c>
       <c r="AC29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG29">
         <v>4</v>
       </c>
       <c r="AH29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29">
         <v>3</v>
@@ -4401,102 +4383,102 @@
         <v>3</v>
       </c>
       <c r="AK29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL29">
         <v>3</v>
       </c>
       <c r="AM29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP29">
         <v>3</v>
       </c>
       <c r="AQ29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
+      <c r="H30" s="4">
+        <v>4</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30">
         <v>3</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T30">
         <v>4</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z30">
         <v>3</v>
@@ -4505,13 +4487,13 @@
         <v>4</v>
       </c>
       <c r="AB30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30">
         <v>3</v>
@@ -4520,22 +4502,22 @@
         <v>4</v>
       </c>
       <c r="AG30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM30">
         <v>4</v>
@@ -4547,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30">
         <v>4</v>
@@ -4555,141 +4537,285 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>4</v>
+      </c>
+      <c r="AD31">
+        <v>5</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <v>3</v>
+      </c>
+      <c r="AH31">
+        <v>4</v>
+      </c>
+      <c r="AI31">
+        <v>5</v>
+      </c>
+      <c r="AJ31">
+        <v>4</v>
+      </c>
+      <c r="AK31">
+        <v>3</v>
+      </c>
+      <c r="AL31">
+        <v>4</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <v>4</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>4</v>
+      </c>
+      <c r="AQ31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31">
-        <v>3</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>4</v>
-      </c>
-      <c r="U31">
-        <v>4</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>2</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>4</v>
-      </c>
-      <c r="AA31">
-        <v>4</v>
-      </c>
-      <c r="AB31">
-        <v>3</v>
-      </c>
-      <c r="AC31">
-        <v>3</v>
-      </c>
-      <c r="AD31">
-        <v>2</v>
-      </c>
-      <c r="AE31">
-        <v>2</v>
-      </c>
-      <c r="AF31">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
         <v>1</v>
       </c>
-      <c r="AG31">
-        <v>2</v>
-      </c>
-      <c r="AH31">
-        <v>4</v>
-      </c>
-      <c r="AI31">
-        <v>5</v>
-      </c>
-      <c r="AJ31">
-        <v>3</v>
-      </c>
-      <c r="AK31">
-        <v>5</v>
-      </c>
-      <c r="AL31">
-        <v>2</v>
-      </c>
-      <c r="AM31">
-        <v>2</v>
-      </c>
-      <c r="AN31">
-        <v>3</v>
-      </c>
-      <c r="AO31">
-        <v>2</v>
-      </c>
-      <c r="AP31">
-        <v>2</v>
-      </c>
-      <c r="AQ31">
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>4</v>
+      </c>
+      <c r="AI32">
+        <v>5</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>2</v>
+      </c>
+      <c r="AM32">
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ71">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="A2:AQ2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AQ72">
+      <sortCondition ref="A2:A72"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="11">
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>